--- a/Src/DetailedSamples/Samples/Cell/Output/SetCellValueTypes.xlsx
+++ b/Src/DetailedSamples/Samples/Cell/Output/SetCellValueTypes.xlsx
@@ -2,17 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R377b1ea2dd934200"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="Rcf4ffc3b34f94780"/>
+    <sheet name="Sheet1" sheetId="1" r:id="R0e99a95ce3344579"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Set Cell Value Types</t>
   </si>
@@ -92,19 +91,13 @@
     <t xml:space="preserve">guid:</t>
   </si>
   <si>
-    <t xml:space="preserve">accdfaad-727e-4bb0-9d6f-8e3c99d40209</t>
+    <t xml:space="preserve">3847d8cd-545a-4cdc-993c-ef6be2de72ef</t>
   </si>
   <si>
     <t xml:space="preserve">Boolean types</t>
   </si>
   <si>
     <t xml:space="preserve">bool:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
@@ -114,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh\:mm\:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -124,12 +117,6 @@
       <b/>
       <color theme="1"/>
       <sz val="15.5"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -153,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -161,7 +148,6 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -499,7 +485,7 @@
     <col min="4" max="4" width="16.4099998474121" customWidth="1"/>
     <col min="5" max="5" width="16.5900001525879" customWidth="1"/>
     <col min="7" max="7" width="10.8500003814697" customWidth="1"/>
-    <col min="8" max="8" width="38.0800018310547" customWidth="1"/>
+    <col min="8" max="8" width="37.939998626709" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
     <col min="11" max="11" width="7.63000011444092" customWidth="1"/>
   </cols>
@@ -546,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <v>45489.3774596991</v>
+        <v>45567.560114537</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -679,24 +665,4 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>